--- a/Stocks/AUROPHARMA.xlsx
+++ b/Stocks/AUROPHARMA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>601.76666666666665</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>730.42117701479742</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>725.34377270358448</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>44.464455586128466</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>4.1999999999999318</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>12.699999999999932</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.33070866141731925</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>713.57504765279725</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>17.938774718693253</v>
       </c>
       <c r="Y67">
         <v>23.418902566265679</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>734.9</v>
+      </c>
+      <c r="D83">
+        <v>750.4</v>
+      </c>
+      <c r="E83">
+        <v>734.2</v>
+      </c>
+      <c r="F83">
+        <v>744</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>742.86666666666667</v>
+      </c>
+      <c r="H83">
+        <v>727.02120317347749</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>726.13665281551744</v>
+      </c>
+      <c r="K83">
+        <v>704.51468474499495</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>79.042450226018914</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>9.7999999999999545</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>16.199999999999932</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.60493827160493796</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>715.18271252807733</v>
+      </c>
+      <c r="W83">
+        <v>712.70621776610062</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>2.4764947619767099</v>
+      </c>
+      <c r="Y83">
+        <v>1.7111918225589833</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>738.1</v>
+      </c>
+      <c r="D84">
+        <v>742.7</v>
+      </c>
+      <c r="E84">
+        <v>726.6</v>
+      </c>
+      <c r="F84">
+        <v>729</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>732.76666666666677</v>
+      </c>
+      <c r="H84">
+        <v>729.89393492007207</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>729.8173966342913</v>
+      </c>
+      <c r="K84">
+        <v>709.42253257944049</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>60.25228020088376</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2.3999999999999773</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>16.100000000000023</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.14906832298136483</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>717.30844906221932</v>
+      </c>
+      <c r="W84">
+        <v>713.91316459824134</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>3.3952844639779869</v>
+      </c>
+      <c r="Y84">
+        <v>2.0480103508427838</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>749.3</v>
+      </c>
+      <c r="D85">
+        <v>750</v>
+      </c>
+      <c r="E85">
+        <v>732.35</v>
+      </c>
+      <c r="F85">
+        <v>735</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>739.11666666666667</v>
+      </c>
+      <c r="H85">
+        <v>734.50530079336932</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>734.3024196044488</v>
+      </c>
+      <c r="K85">
+        <v>714.51752533956483</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>64.474844811724225</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>2.6499999999999773</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>17.649999999999977</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.15014164305948899</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>720.03022612957022</v>
+      </c>
+      <c r="W85">
+        <v>715.475152405779</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>4.5550737237912244</v>
+      </c>
+      <c r="Y85">
+        <v>2.5494230254324721</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>736</v>
+      </c>
+      <c r="D86">
+        <v>739.95</v>
+      </c>
+      <c r="E86">
+        <v>722.2</v>
+      </c>
+      <c r="F86">
+        <v>726.25</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>729.4666666666667</v>
+      </c>
+      <c r="H86">
+        <v>731.98598373001801</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>735.55743747012684</v>
+      </c>
+      <c r="K86">
+        <v>716.22474193077267</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>54.014595660864103</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>4.0499999999999545</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>17.75</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.22816901408450449</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>720.9871144173286</v>
+      </c>
+      <c r="W86">
+        <v>716.27328926461018</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>4.7138251527184138</v>
+      </c>
+      <c r="Y86">
+        <v>2.9823034508896606</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>729.5</v>
+      </c>
+      <c r="D87">
+        <v>762</v>
+      </c>
+      <c r="E87">
+        <v>723.6</v>
+      </c>
+      <c r="F87">
+        <v>757.3</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>747.63333333333321</v>
+      </c>
+      <c r="H87">
+        <v>739.80965853167561</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>741.43356247676536</v>
+      </c>
+      <c r="K87">
+        <v>717.86368816837876</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>73.258702611135789</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>33.699999999999932</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>38.399999999999977</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.87760416666666541</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>726.57371219927802</v>
+      </c>
+      <c r="W87">
+        <v>719.31230487463904</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>7.2614073246389808</v>
+      </c>
+      <c r="Y87">
+        <v>3.8381242256395245</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>765</v>
+      </c>
+      <c r="D88">
+        <v>772.5</v>
+      </c>
+      <c r="E88">
+        <v>742.25</v>
+      </c>
+      <c r="F88">
+        <v>748.4</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>754.38333333333333</v>
+      </c>
+      <c r="H88">
+        <v>747.09649593250447</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>748.33721525970634</v>
+      </c>
+      <c r="K88">
+        <v>723.2828685754057</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>63.70656909234674</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>6.1499999999999773</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>30.25</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.20330578512396619</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>729.9316026301583</v>
+      </c>
+      <c r="W88">
+        <v>721.46694895799908</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>8.4646536721592156</v>
+      </c>
+      <c r="Y88">
+        <v>4.7634301149434624</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>752.9</v>
+      </c>
+      <c r="D89">
+        <v>755</v>
+      </c>
+      <c r="E89">
+        <v>741.15</v>
+      </c>
+      <c r="F89">
+        <v>743</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>746.38333333333333</v>
+      </c>
+      <c r="H89">
+        <v>746.73991463291895</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>749.81783409088268</v>
+      </c>
+      <c r="K89">
+        <v>727.25334222531558</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>57.973532768671554</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>13.850000000000023</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.13357400722021803</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>731.94212530244158</v>
+      </c>
+      <c r="W89">
+        <v>723.0619897759251</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>8.880135526516483</v>
+      </c>
+      <c r="Y89">
+        <v>5.5867711972580665</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>743</v>
+      </c>
+      <c r="D90">
+        <v>754.45</v>
+      </c>
+      <c r="E90">
+        <v>738</v>
+      </c>
+      <c r="F90">
+        <v>747.4</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>746.61666666666667</v>
+      </c>
+      <c r="H90">
+        <v>746.67829064979287</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>750.84720429290871</v>
+      </c>
+      <c r="K90">
+        <v>729.6414883974677</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>61.502159911309093</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>9.3999999999999773</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>16.450000000000045</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.57142857142856851</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>734.32025987129668</v>
+      </c>
+      <c r="W90">
+        <v>724.86480534807879</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>9.4554545232178953</v>
+      </c>
+      <c r="Y90">
+        <v>6.3605078624500324</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>751.4</v>
+      </c>
+      <c r="D91">
+        <v>758</v>
+      </c>
+      <c r="E91">
+        <v>725.2</v>
+      </c>
+      <c r="F91">
+        <v>739.75</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>740.98333333333323</v>
+      </c>
+      <c r="H91">
+        <v>743.830811991563</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>752.43671445004009</v>
+      </c>
+      <c r="K91">
+        <v>728.65449097580824</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>52.011414518840482</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>14.549999999999955</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>32.799999999999955</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.44359756097560898</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>735.15560450648184</v>
+      </c>
+      <c r="W91">
+        <v>725.96741235933223</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>9.1881921471496071</v>
+      </c>
+      <c r="Y91">
+        <v>6.9260447193899477</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>739.75</v>
+      </c>
+      <c r="D92">
+        <v>752</v>
+      </c>
+      <c r="E92">
+        <v>736</v>
+      </c>
+      <c r="F92">
+        <v>736.05</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>741.35</v>
+      </c>
+      <c r="H92">
+        <v>742.59040599578157</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>752.33966679447565</v>
+      </c>
+      <c r="K92">
+        <v>730.2868263145175</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>47.57306603361269</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>4.9999999999954525E-2</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>3.1249999999971578E-3</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>735.29320381317689</v>
+      </c>
+      <c r="W92">
+        <v>726.71427070308539</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>8.5789331100914978</v>
+      </c>
+      <c r="Y92">
+        <v>7.2566223975302577</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>744</v>
+      </c>
+      <c r="D93">
+        <v>748</v>
+      </c>
+      <c r="E93">
+        <v>737.5</v>
+      </c>
+      <c r="F93">
+        <v>741.05</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>742.18333333333339</v>
+      </c>
+      <c r="H93">
+        <v>742.38686966455748</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>751.37529639570323</v>
+      </c>
+      <c r="K93">
+        <v>731.8897538001803</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>54.178087567367598</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>3.5499999999999545</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>10.5</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.33809523809523379</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>736.17886476499586</v>
+      </c>
+      <c r="W93">
+        <v>727.77617657693088</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>8.4026881880649853</v>
+      </c>
+      <c r="Y93">
+        <v>7.4858355556372036</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>744.2</v>
+      </c>
+      <c r="D94">
+        <v>762.95</v>
+      </c>
+      <c r="E94">
+        <v>742.45</v>
+      </c>
+      <c r="F94">
+        <v>756.1</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>753.83333333333337</v>
+      </c>
+      <c r="H94">
+        <v>748.11010149894537</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>753.94745275221362</v>
+      </c>
+      <c r="K94">
+        <v>734.23647517791801</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>68.913633932890619</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>13.649999999999977</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>20.5</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.66585365853658429</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>739.24365480115034</v>
+      </c>
+      <c r="W94">
+        <v>729.87423757123224</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>9.3694172299180991</v>
+      </c>
+      <c r="Y94">
+        <v>7.8625518904933829</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>755.95</v>
+      </c>
+      <c r="D95">
+        <v>771.65</v>
+      </c>
+      <c r="E95">
+        <v>751.25</v>
+      </c>
+      <c r="F95">
+        <v>764.95</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>762.61666666666679</v>
+      </c>
+      <c r="H95">
+        <v>755.36338408280608</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>757.8813521406106</v>
+      </c>
+      <c r="K95">
+        <v>738.01725847171406</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>74.856938358954878</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>13.700000000000045</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>20.399999999999977</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.67156862745098334</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>743.19847713943489</v>
+      </c>
+      <c r="W95">
+        <v>732.47244219558536</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>10.726034943849527</v>
+      </c>
+      <c r="Y95">
+        <v>8.4352485011646117</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>762</v>
+      </c>
+      <c r="D96">
+        <v>776</v>
+      </c>
+      <c r="E96">
+        <v>760.2</v>
+      </c>
+      <c r="F96">
+        <v>767</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>767.73333333333323</v>
+      </c>
+      <c r="H96">
+        <v>761.5483587080696</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>761.90771833158601</v>
+      </c>
+      <c r="K96">
+        <v>742.94675658911092</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>76.17579341583405</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>6.7999999999999545</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>15.799999999999955</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.43037974683544139</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>746.86024988721408</v>
+      </c>
+      <c r="W96">
+        <v>735.0300390699864</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>11.83021081722768</v>
+      </c>
+      <c r="Y96">
+        <v>9.1142409643772258</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>765</v>
+      </c>
+      <c r="D97">
+        <v>768.9</v>
+      </c>
+      <c r="E97">
+        <v>753</v>
+      </c>
+      <c r="F97">
+        <v>756</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>759.30000000000007</v>
+      </c>
+      <c r="H97">
+        <v>760.42417935403478</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>763.46155870234463</v>
+      </c>
+      <c r="K97">
+        <v>745.18081068041965</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>56.350300892002082</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>15.899999999999977</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.18867924528301913</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>748.26636528918118</v>
+      </c>
+      <c r="W97">
+        <v>736.58336950924672</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>11.682995779934458</v>
+      </c>
+      <c r="Y97">
+        <v>9.6279919274886723</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>764.75</v>
+      </c>
+      <c r="D98">
+        <v>772.7</v>
+      </c>
+      <c r="E98">
+        <v>749.5</v>
+      </c>
+      <c r="F98">
+        <v>758.4</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>760.19999999999993</v>
+      </c>
+      <c r="H98">
+        <v>760.31208967701741</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>765.51454565737913</v>
+      </c>
+      <c r="K98">
+        <v>746.14063052921529</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>59.243214673362466</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>8.8999999999999773</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>23.200000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.38362068965517065</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>749.82538601392253</v>
+      </c>
+      <c r="W98">
+        <v>738.19941621226553</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>11.625969801656993</v>
+      </c>
+      <c r="Y98">
+        <v>10.027587502322337</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>761</v>
+      </c>
+      <c r="D99">
+        <v>770.8</v>
+      </c>
+      <c r="E99">
+        <v>743.4</v>
+      </c>
+      <c r="F99">
+        <v>746.7</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>753.63333333333321</v>
+      </c>
+      <c r="H99">
+        <v>756.97271150517531</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>766.68909106685044</v>
+      </c>
+      <c r="K99">
+        <v>745.53160152272301</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>42.200005429929114</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>3.3000000000000682</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>27.399999999999977</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.12043795620438215</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>749.344557396396</v>
+      </c>
+      <c r="W99">
+        <v>738.82908908543106</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>10.515468310964934</v>
+      </c>
+      <c r="Y99">
+        <v>10.125163664050856</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>750</v>
+      </c>
+      <c r="D100">
+        <v>754.95</v>
+      </c>
+      <c r="E100">
+        <v>737.95</v>
+      </c>
+      <c r="F100">
+        <v>746</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>746.30000000000007</v>
+      </c>
+      <c r="H100">
+        <v>751.63635575258763</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>764.08040416310587</v>
+      </c>
+      <c r="K100">
+        <v>743.84680118434017</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>41.311207889046855</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>8.0499999999999545</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.4735294117647032</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>748.83001010464272</v>
+      </c>
+      <c r="W100">
+        <v>739.3602676716954</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>9.4697424329473279</v>
+      </c>
+      <c r="Y100">
+        <v>9.9940794178301502</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>745</v>
+      </c>
+      <c r="D101">
+        <v>761</v>
+      </c>
+      <c r="E101">
+        <v>744.3</v>
+      </c>
+      <c r="F101">
+        <v>751.5</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>752.26666666666677</v>
+      </c>
+      <c r="H101">
+        <v>751.95151120962714</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>763.39586990463795</v>
+      </c>
+      <c r="K101">
+        <v>743.94751203226451</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>51.370449801698271</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>7.2000000000000455</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>16.700000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.43113772455089977</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>749.24077778085154</v>
+      </c>
+      <c r="W101">
+        <v>740.2595071034217</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>8.9812706774298476</v>
+      </c>
+      <c r="Y101">
+        <v>9.791517669750089</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>752.95</v>
+      </c>
+      <c r="D102">
+        <v>757</v>
+      </c>
+      <c r="E102">
+        <v>718.45</v>
+      </c>
+      <c r="F102">
+        <v>724</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>733.15</v>
+      </c>
+      <c r="H102">
+        <v>742.5507556048135</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>761.97456548138507</v>
+      </c>
+      <c r="K102">
+        <v>738.28139824731682</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>24.801687313602379</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>5.5499999999999545</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>38.549999999999955</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.14396887159532973</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>745.35758119918205</v>
+      </c>
+      <c r="W102">
+        <v>739.05509916983488</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>6.3024820293471748</v>
+      </c>
+      <c r="Y102">
+        <v>9.0937105416695054</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>727.95</v>
+      </c>
+      <c r="D103">
+        <v>727.95</v>
+      </c>
+      <c r="E103">
+        <v>693.65</v>
+      </c>
+      <c r="F103">
+        <v>699.5</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>707.0333333333333</v>
+      </c>
+      <c r="H103">
+        <v>724.7920444690734</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>754.41355092996616</v>
+      </c>
+      <c r="K103">
+        <v>728.36330974791304</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>15.73739096807679</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>5.8500000000000227</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>34.300000000000068</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.17055393586005863</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>738.3025687070002</v>
+      </c>
+      <c r="W103">
+        <v>736.12509182392114</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>2.1774768830790663</v>
+      </c>
+      <c r="Y103">
+        <v>7.7104638099514178</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD103">
+        <f t="shared" si="35"/>
+        <v>724.05000000000007</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="36"/>
+        <v>714.85</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="37"/>
+        <v>710.80000000000007</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="38"/>
+        <v>706.75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>701</v>
+      </c>
+      <c r="D104">
+        <v>714.6</v>
+      </c>
+      <c r="E104">
+        <v>696</v>
+      </c>
+      <c r="F104">
+        <v>704.75</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>705.11666666666667</v>
+      </c>
+      <c r="H104">
+        <v>714.95435556787004</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>745.56609516775143</v>
+      </c>
+      <c r="K104">
+        <v>721.17146313726573</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>23.25068851032221</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>8.75</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>18.600000000000023</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.47043010752688114</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>733.14063505976935</v>
+      </c>
+      <c r="W104">
+        <v>733.80101094807515</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-0.66037588830579352</v>
+      </c>
+      <c r="Y104">
+        <v>6.0362958702999752</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>711.5</v>
+      </c>
+      <c r="D105">
+        <v>712.9</v>
+      </c>
+      <c r="E105">
+        <v>687</v>
+      </c>
+      <c r="F105">
+        <v>689.8</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>696.56666666666661</v>
+      </c>
+      <c r="H105">
+        <v>705.76051111726838</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>738.30696290825108</v>
+      </c>
+      <c r="K105">
+        <v>713.57780466231782</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>17.649110284957892</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>2.7999999999999545</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>25.899999999999977</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.10810810810810645</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>726.47284505057405</v>
+      </c>
+      <c r="W105">
+        <v>730.54167680377327</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-4.0688317531992197</v>
+      </c>
+      <c r="Y105">
+        <v>4.0152703456001362</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>709.95</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>703</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>699.95</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>696.90000000000009</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>689.7</v>
+      </c>
+      <c r="D106">
+        <v>691.2</v>
+      </c>
+      <c r="E106">
+        <v>665.05</v>
+      </c>
+      <c r="F106">
+        <v>677</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>677.75</v>
+      </c>
+      <c r="H106">
+        <v>691.75525555863419</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>727.83874892863969</v>
+      </c>
+      <c r="K106">
+        <v>702.79384807069164</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>14.03126358498629</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>11.950000000000045</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>26.150000000000091</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.45697896749522005</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>718.86163811971653</v>
+      </c>
+      <c r="W106">
+        <v>726.57562667016043</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-7.7139885504439007</v>
+      </c>
+      <c r="Y106">
+        <v>1.6694185663913288</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>675.8</v>
+      </c>
+      <c r="D107">
+        <v>706</v>
+      </c>
+      <c r="E107">
+        <v>675.8</v>
+      </c>
+      <c r="F107">
+        <v>694.2</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>692</v>
+      </c>
+      <c r="H107">
+        <v>691.87762777931709</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>722.98569361116415</v>
+      </c>
+      <c r="K107">
+        <v>696.7952151660935</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>36.050150481948293</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>18.400000000000091</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>30.200000000000045</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.60927152317881006</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>715.06753994745247</v>
+      </c>
+      <c r="W107">
+        <v>724.17743210200035</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-9.1098921545478788</v>
+      </c>
+      <c r="Y107">
+        <v>-0.48644357779651282</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
